--- a/biology/Médecine/Conrad_Victor_Schneider/Conrad_Victor_Schneider.xlsx
+++ b/biology/Médecine/Conrad_Victor_Schneider/Conrad_Victor_Schneider.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conrad Victor Schneider (1614-10 août 1680) est un médecin allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Bitterfeld en Misnie, il est professeur à Wittemberg et médecin de l'électeur de Saxe. Il s'est intéressé à la texture de la membrane pituitaire qui tapisse les fosses nasales, et qui a pris son nom (membrane de Schneider).
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dissertationes academicas de patribus principalioribus ;
 Liberum de osse cribriformi &amp; sensu ac organo odoratus, &amp; morbis ad utrumque spectantibus, Wittenberg, 1655 ;
